--- a/biology/Botanique/Muflier_rubicond/Muflier_rubicond.xlsx
+++ b/biology/Botanique/Muflier_rubicond/Muflier_rubicond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Misopates orontium
-Le muflier des champs (Misopates orontium), appelé aussi muflier rubicond ou tête-de-mort (en raison de l'aspect de ses fruits) est une petite plante appartenant à la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[1], ou des Plantaginaceae selon la classification phylogénétique. C'est l'un des très rares représentants du genre Misopates, proche des gueules-de-loup et longtemps classé avec elles dans le genre Antirrhinum. Cette petite plante, adventice des cultures, a tendance à disparaître en raison de l'usage intensif des désherbants. On la reconnaît notamment à ses fleurs rose pourpré et à ses petites feuilles linéaires, semblables à celles de certaines linaires.
+Le muflier des champs (Misopates orontium), appelé aussi muflier rubicond ou tête-de-mort (en raison de l'aspect de ses fruits) est une petite plante appartenant à la famille des Scrophulariaceae selon la classification classique de Cronquist (1981), ou des Plantaginaceae selon la classification phylogénétique. C'est l'un des très rares représentants du genre Misopates, proche des gueules-de-loup et longtemps classé avec elles dans le genre Antirrhinum. Cette petite plante, adventice des cultures, a tendance à disparaître en raison de l'usage intensif des désherbants. On la reconnaît notamment à ses fleurs rose pourpré et à ses petites feuilles linéaires, semblables à celles de certaines linaires.
 </t>
         </is>
       </c>
@@ -514,18 +526,91 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Organes reproducteurs
-Couleur dominante des fleurs : rose
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Couleur dominante des fleurs : rose
 Période de floraison : juillet-octobre
 Inflorescence : épi simple
 Sexualité : hermaphrodite
 Ordre de maturation : homogame
-Pollinisation : entomogame, autogame
-Graine
-Fruit : capsule
-Dissémination : épizoochore
-Habitat et répartition
-Habitat type : annuelles commensales des cultures acidophiles, mésohydriques, thermophiles
+Pollinisation : entomogame, autogame</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Muflier_rubicond</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muflier_rubicond</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Graine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fruit : capsule
+Dissémination : épizoochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muflier_rubicond</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muflier_rubicond</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habitat type : annuelles commensales des cultures acidophiles, mésohydriques, thermophiles
 Aire de répartition : européen
 Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004.
 </t>
